--- a/similarities/split_global/harmonic_similarity_timestamps_407.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_407.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,698 +484,738 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_3</t>
+          <t>isophonics_225</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_8</t>
+          <t>schubert-winterreise_98</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['G#:maj', 'C#:maj', 'G#:maj']]</t>
+          <t>['E/3', 'A:min', 'F']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'B']]</t>
+          <t>['C', 'F:min', 'C#']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:09.640000', '0:00:11.380000')]</t>
+          <t>('0:00:12.579000', '0:00:17.703000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:58.916720', '0:01:03.328512')]</t>
+          <t>('0:00:09.380000', '0:00:21.820000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=9.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-225#t=12.579</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-8#t=58.91672']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-98#t=9.38</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_66</t>
+          <t>isophonics_193</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_183</t>
+          <t>isophonics_275</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['Db', 'Db:min', 'Ab'], ['Ab', 'Eb:7', 'Ab']]</t>
+          <t>['Ab', 'Eb', 'Bb/3']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['G', 'G:min', 'D'], ['D', 'A:7', 'D']]</t>
+          <t>['C', 'G', 'D']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:48.450000', '0:00:52.970000'), ('0:00:22.770000', '0:00:29.490000')]</t>
+          <t>('0:00:25.942000', '0:00:29.102000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:01:02.879563', '0:01:11.679925'), ('0:01:09.520470', '0:01:14.942329')]</t>
+          <t>('0:00:15.298925', '0:00:24.401147')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=48.45', 'https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=22.77']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=25.942</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-183#t=62.879563', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-183#t=69.52047']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-275#t=15.298925</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>isophonics_241</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
+          <t>isophonics_244</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>['D:min', 'G', 'C']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['G:min', 'C', 'F']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:01:21.100000', '0:01:27.580000')]</t>
+          <t>('0:01:30.971000', '0:01:36.810000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:39.840000', '0:00:47.280000')]</t>
+          <t>('0:00:44.859274', '0:00:49.758684')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=81.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-241#t=90.971</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-106#t=39.84']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-244#t=44.859274</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_38</t>
+          <t>schubert-winterreise_198</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_158</t>
+          <t>schubert-winterreise_16</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D#:min/A#', 'A#', 'D#:min/A#', 'A#', 'D#:min', 'A#']]</t>
+          <t>['E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:49.280000', '0:00:58.700000')]</t>
+          <t>('0:00:00.400000', '0:00:09.040000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:10.260000', '0:00:24.700000')]</t>
+          <t>('0:01:12.820000', '0:01:24.380000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-38#t=49.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=0.4</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=10.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=72.82</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_141</t>
+          <t>schubert-winterreise_82</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>schubert-winterreise_104</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['F:maj', 'F:7', 'A#:maj'], ['F:7/D#', 'A#:maj/D', 'F:maj/C'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['G:maj/B', 'D:7', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['F:maj', 'F:7/D#', 'A#:maj/D'], ['F:7/D#', 'A#:maj/D', 'F:maj/C'], ['F:maj', 'C:7/A#', 'F:maj/A']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:20.780000', '0:00:31.600000'), ('0:01:10.740000', '0:01:13.740000'), ('0:01:12.640000', '0:01:23.380000')]</t>
+          <t>('0:00:43.040000', '0:00:46.660000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:56.440000', '0:01:05.460000'), ('0:01:01.680000', '0:01:07.260000'), ('0:01:14.900000', '0:01:26.120000')]</t>
+          <t>('0:00:07.620000', '0:00:09.860000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=20.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=70.74', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=72.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=43.04</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=56.44', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=61.68', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=74.9']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=7.62</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_71</t>
+          <t>schubert-winterreise_40</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_76</t>
+          <t>isophonics_50</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:7', 'Bb:7']]</t>
+          <t>['D:maj/F#', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['C#:min', 'F#:7', 'B:7']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:01:37.390000', '0:01:40.090000')]</t>
+          <t>('0:01:00.040000', '0:01:07.080000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:01:05.960000', '0:01:09.920000')]</t>
+          <t>('0:00:37.936167', '0:00:42.951678')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-71#t=97.39']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=60.04</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-76#t=65.96']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-50#t=37.936167</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_3</t>
+          <t>isophonics_14</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>schubert-winterreise_16</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['C#:maj', 'G#:7', 'C#:maj', 'G#:7', 'C#:maj']]</t>
+          <t>['C:7', 'F', 'C/3']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['F:7/D#', 'A#:maj/D', 'F:maj/C']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:00.480000', '0:00:09.640000')]</t>
+          <t>('0:00:12.503707', '0:00:19.759943')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:31.910000', '0:00:40.720000')]</t>
+          <t>('0:01:10.560000', '0:01:14.380000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=0.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-14#t=12.503707</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=31.91']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=70.56</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_31</t>
+          <t>isophonics_4</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_96</t>
+          <t>schubert-winterreise_175</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['G:7', 'C:min', 'F:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['E:7', 'A:min', 'D:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:03.900000', '0:00:16.080000')]</t>
+          <t>('0:02:36.152000', '0:02:39.022000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:03.880000', '0:01:19')]</t>
+          <t>('0:00:06.940000', '0:00:17.120000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-31#t=3.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-4#t=156.152</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=63.88']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-175#t=6.94</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>schubert-winterreise_84</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_151</t>
+          <t>schubert-winterreise_73</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
+          <t>['C:maj', 'G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:16.820000', '0:00:23.180000')]</t>
+          <t>('0:01:03.100000', '0:01:13.880000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:01:57.540000', '0:02:01.800000')]</t>
+          <t>('0:01:06.060000', '0:01:08.180000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=16.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=63.1</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-151#t=117.54']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=66.06</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>schubert-winterreise_98</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_165</t>
+          <t>jaah_87</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['F:min/C', 'C', 'F:min/C', 'C', 'F:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'D', 'A']]</t>
+          <t>['F:min', 'C', 'F:min', 'C', 'F:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:58.440000', '0:02:02.340000')]</t>
+          <t>('0:00:43.880000', '0:00:50.880000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:03.599751', '0:00:08.760294')]</t>
+          <t>('0:00:00.600000', '0:00:08.740000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=118.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-98#t=43.88</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-165#t=3.599751']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-87#t=0.6</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_27</t>
+          <t>isophonics_276</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>schubert-winterreise_157</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['G', 'D', 'G']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:01:04.300000', '0:01:05.720000'), ('0:01:02.480000', '0:01:04.920000')]</t>
+          <t>('0:00:09.738333', '0:00:15.380782')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:01:16.560000', '0:01:27.040000'), ('0:00:21.580000', '0:00:29.340000')]</t>
+          <t>('0:00:40.960000', '0:00:43.300000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=64.3', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=62.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-276#t=9.738333</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=76.56', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=21.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=40.96</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_52</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
+          <t>schubert-winterreise_143</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['F', 'Bb', 'F']]</t>
+          <t>['G:min/A#', 'C:min', 'G:min/A#']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['B:min', 'E:min/B', 'B:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:02.530000', '0:01:09.910000')]</t>
+          <t>('0:01:39.600000', '0:01:51.620000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:03.101913', '0:00:07.754783')]</t>
+          <t>('0:00:25.480000', '0:00:32.760000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=62.53']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=99.6</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-82#t=3.101913']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=25.48</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
-        </is>
-      </c>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_85</t>
+          <t>jaah_41</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_48</t>
+          <t>schubert-winterreise_200</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Ab:7', 'Db']]</t>
+          <t>['C:7', 'F', 'C:7', 'F']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:7', 'A#:maj']]</t>
+          <t>['B:7', 'E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:31.460000', '0:01:37.740000')]</t>
+          <t>('0:00:10.130000', '0:00:14.450000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:01:00.720000', '0:01:12.720000')]</t>
+          <t>('0:00:16.340000', '0:00:36.300000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=91.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-41#t=10.13</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=60.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=16.34</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_191</t>
+          <t>schubert-winterreise_192</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_37</t>
+          <t>isophonics_138</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min']]</t>
+          <t>['C:7', 'F:min', 'A#:min/C#']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>['G:7', 'C:min', 'F:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:13.080000', '0:00:19.340000')]</t>
+          <t>('0:00:25.620000', '0:00:33.760000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:45.580000', '0:00:49.600000')]</t>
+          <t>('0:00:02.352018', '0:00:08.679455')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-191#t=13.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-192#t=25.62</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-37#t=45.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-138#t=2.352018</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>jaah_52</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
+          <t>schubert-winterreise_134</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:(3,5,b7,b9)', 'D:min']]</t>
+          <t>['F', 'Bb', 'F']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>['C:maj/G', 'F:maj', 'C:maj/G']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:40.740000', '0:02:01.400000')]</t>
+          <t>('0:01:02.530000', '0:01:09.910000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:01:03.120000', '0:01:09.420000')]</t>
+          <t>('0:02:22.140000', '0:02:26.800000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=100.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=62.53</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-149#t=63.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-134#t=142.14</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
